--- a/data/Veri az 2.xlsx
+++ b/data/Veri az 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yazilim1\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/selimsidan/Desktop/grad_project/Route_Optimization_DSS/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AADEF4F-EBB4-4F93-B2CB-2DFA18D06DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475B8C5E-9C04-7E43-9FF5-11EF63D18954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1908" windowWidth="22680" windowHeight="9540" xr2:uid="{B2A77605-0F9F-4C4A-BFCC-C4CD9FCD6ECA}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{B2A77605-0F9F-4C4A-BFCC-C4CD9FCD6ECA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="32">
   <si>
     <t>ID</t>
   </si>
@@ -81,9 +81,6 @@
     <t>AdÄ±yaman2</t>
   </si>
   <si>
-    <t>last_mile</t>
-  </si>
-  <si>
     <t>AdÄ±yaman3</t>
   </si>
   <si>
@@ -130,6 +127,9 @@
   </si>
   <si>
     <t>AdÄ±yaman17</t>
+  </si>
+  <si>
+    <t>customer_cost</t>
   </si>
 </sst>
 </file>
@@ -137,10 +137,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +163,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -211,24 +218,27 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Virgül" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -244,9 +254,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -284,7 +294,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -390,7 +400,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -532,7 +542,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -540,19 +550,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C8D1458-43A0-4C42-8FCB-AA0F4B986CAE}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="G2" sqref="G2:G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -571,8 +582,11 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -591,8 +605,11 @@
       <c r="F2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -611,8 +628,11 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -631,8 +651,11 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -651,8 +674,11 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -669,12 +695,15 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>16</v>
       </c>
       <c r="B7" s="4">
         <v>37.514299999999999</v>
@@ -689,12 +718,15 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="G7">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="4">
         <v>38.256100000000004</v>
@@ -709,12 +741,15 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="4">
         <v>37.145099999999999</v>
@@ -726,15 +761,18 @@
         <v>100</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="4">
         <v>37.451340000000002</v>
@@ -749,12 +787,15 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="G10">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="4">
         <v>38.451340000000002</v>
@@ -769,12 +810,15 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="G11">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="4">
         <v>37.453099999999999</v>
@@ -789,12 +833,15 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="G12">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="4">
         <v>37.675669999999997</v>
@@ -809,12 +856,15 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="G13">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="4">
         <v>37.824810978260899</v>
@@ -829,12 +879,15 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="G14">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="4">
         <v>37.855809506521702</v>
@@ -846,15 +899,18 @@
         <v>200</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="G15">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="4">
         <v>37.886808034782597</v>
@@ -869,12 +925,15 @@
         <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="G16">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="4">
         <v>37.917806563043499</v>
@@ -889,12 +948,15 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="G17">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="4">
         <v>37.948805091304301</v>
@@ -911,10 +973,13 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="4">
         <v>37.979803619565203</v>
@@ -931,10 +996,13 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" s="4">
         <v>38.010802147826098</v>
@@ -951,10 +1019,13 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" s="4">
         <v>38.041800676087</v>
@@ -971,8 +1042,12 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
+      <c r="G21">
+        <v>-1000</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>